--- a/DEM/samples/Jul_12_2018/Quarry_Result.xlsx
+++ b/DEM/samples/Jul_12_2018/Quarry_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/DEM/samples/Jul_12_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E4E9D1-4F10-C746-828C-0354651244F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B054FE0-92DE-4E4D-98D8-B06FC35BB48F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -440,7 +440,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,14 +468,14 @@
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -486,15 +486,19 @@
         <f>B2*0.453592*1000</f>
         <v>4036.9688000000006</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="3">
+        <f>I2/2.66</f>
+        <v>1517.6574436090227</v>
+      </c>
+      <c r="L2">
         <v>1598.7</v>
       </c>
-      <c r="L2" s="1">
-        <f>I2/K2</f>
+      <c r="M2" s="1">
+        <f>I2/L2</f>
         <v>2.5251571902170515</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -506,17 +510,21 @@
         <f t="shared" ref="I3:I46" si="0">B3*0.453592*1000</f>
         <v>3855.5320000000002</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J48" si="1">I3/2.66</f>
+        <v>1449.448120300752</v>
+      </c>
+      <c r="L3">
         <v>1489.8</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L46" si="1">I3/K3</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M46" si="2">I3/L3</f>
         <v>2.5879527453349445</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A41" si="2">A3+1</f>
+        <f t="shared" ref="A4:A41" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -526,17 +534,21 @@
         <f t="shared" si="0"/>
         <v>9207.9176000000007</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>3461.6231578947368</v>
+      </c>
+      <c r="L4">
         <v>3335.3</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="1"/>
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
         <v>2.7607464396006356</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -546,17 +558,21 @@
         <f t="shared" si="0"/>
         <v>3061.7459999999996</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1151.0323308270674</v>
+      </c>
+      <c r="L5">
         <v>1291.2</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
         <v>2.3712407063197021</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -566,17 +582,21 @@
         <f t="shared" si="0"/>
         <v>5511.1427999999996</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>2071.8581954887218</v>
+      </c>
+      <c r="L6">
         <v>2106.1999999999998</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
         <v>2.616628430348495</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -586,17 +606,21 @@
         <f t="shared" si="0"/>
         <v>5624.5407999999998</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>2114.4890225563909</v>
+      </c>
+      <c r="L7">
         <v>2251.8000000000002</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
         <v>2.4977976729727325</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -606,17 +630,21 @@
         <f t="shared" si="0"/>
         <v>3855.5320000000002</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>1449.448120300752</v>
+      </c>
+      <c r="L8">
         <v>1454</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
         <v>2.6516726272352131</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -626,17 +654,21 @@
         <f t="shared" si="0"/>
         <v>3039.0663999999997</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>1142.5061654135336</v>
+      </c>
+      <c r="L9">
         <v>1137.5999999999999</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
         <v>2.671471870604782</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -646,17 +678,21 @@
         <f t="shared" si="0"/>
         <v>3742.134</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>1406.8172932330826</v>
+      </c>
+      <c r="L10">
         <v>1500.7</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
         <v>2.4935923235823281</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -666,17 +702,21 @@
         <f t="shared" si="0"/>
         <v>2358.6784000000002</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>886.72120300751885</v>
+      </c>
+      <c r="L11">
         <v>895.01</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
         <v>2.6353654149115657</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -686,17 +726,21 @@
         <f t="shared" si="0"/>
         <v>3696.7748000000001</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>1389.764962406015</v>
+      </c>
+      <c r="L12">
         <v>1179.3</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
         <v>3.1347195794115157</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -706,17 +750,21 @@
         <f t="shared" si="0"/>
         <v>3810.1728000000003</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>1432.3957894736843</v>
+      </c>
+      <c r="L13">
         <v>1289.0999999999999</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
         <v>2.9556844309983714</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -726,17 +774,21 @@
         <f t="shared" si="0"/>
         <v>3628.7359999999999</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>1364.1864661654133</v>
+      </c>
+      <c r="L14">
         <v>1227.0999999999999</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
         <v>2.9571640453100807</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -746,17 +798,21 @@
         <f t="shared" si="0"/>
         <v>4467.8811999999998</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>1679.6545864661653</v>
+      </c>
+      <c r="L15">
         <v>1521.9</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="1"/>
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
         <v>2.9357258689795649</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -766,17 +822,21 @@
         <f t="shared" si="0"/>
         <v>3855.5320000000002</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>1449.448120300752</v>
+      </c>
+      <c r="L16">
         <v>1318.3</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="1"/>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
         <v>2.9246241371463251</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -786,17 +846,21 @@
         <f t="shared" si="0"/>
         <v>4127.6871999999994</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>1551.7621052631575</v>
+      </c>
+      <c r="L17">
         <v>1465.7</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="1"/>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
         <v>2.816188305928907</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -806,17 +870,21 @@
         <f t="shared" si="0"/>
         <v>6191.5307999999995</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>2327.6431578947368</v>
+      </c>
+      <c r="L18">
         <v>2160.8000000000002</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="1"/>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
         <v>2.8653881895594222</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -826,17 +894,21 @@
         <f t="shared" si="0"/>
         <v>3356.5808000000002</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>1261.8724812030075</v>
+      </c>
+      <c r="L19">
         <v>1073.7</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="1"/>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
         <v>3.1261812424327093</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -846,17 +918,21 @@
         <f t="shared" si="0"/>
         <v>4241.0851999999995</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>1594.3929323308269</v>
+      </c>
+      <c r="L20">
         <v>1439.3</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="1"/>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
         <v>2.9466304453553809</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -866,17 +942,21 @@
         <f t="shared" si="0"/>
         <v>3878.2116000000001</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>1457.9742857142858</v>
+      </c>
+      <c r="L21">
         <v>1364.6</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="1"/>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
         <v>2.8420134838047781</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -907,17 +987,21 @@
         <f t="shared" si="0"/>
         <v>4354.4831999999997</v>
       </c>
-      <c r="K22" s="5">
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>1637.0237593984959</v>
+      </c>
+      <c r="L22" s="5">
         <v>1747.1</v>
       </c>
-      <c r="L22" s="6">
-        <f t="shared" si="1"/>
+      <c r="M22" s="6">
+        <f t="shared" si="2"/>
         <v>2.4924063877282352</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -933,32 +1017,36 @@
         <v>5</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ref="F23:F46" si="3">C23*D23*E23</f>
+        <f t="shared" ref="F23:F46" si="4">C23*D23*E23</f>
         <v>183.75</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" ref="G23:G46" si="4">F23*16.3871</f>
+        <f t="shared" ref="G23:G46" si="5">F23*16.3871</f>
         <v>3011.129625</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H40" si="5">B23/F23*27.679905</f>
+        <f t="shared" ref="H23:H40" si="6">B23/F23*27.679905</f>
         <v>1.385878236734694</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>4173.0463999999993</v>
       </c>
-      <c r="K23" s="5">
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>1568.8144360902252</v>
+      </c>
+      <c r="L23" s="5">
         <v>1832.6</v>
       </c>
-      <c r="L23" s="6">
-        <f t="shared" si="1"/>
+      <c r="M23" s="6">
+        <f t="shared" si="2"/>
         <v>2.2771179744625121</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -974,35 +1062,39 @@
         <v>5</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>522.5</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8562.2597499999993</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82907275263157898</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>7098.7147999999997</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>2668.6897744360899</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>3341.4</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="1"/>
+      <c r="M24" s="6">
+        <f t="shared" si="2"/>
         <v>2.1244732148201351</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -1018,32 +1110,36 @@
         <v>4.5</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>191.25</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3134.0328749999999</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.534154211764706</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>4808.0752000000002</v>
       </c>
-      <c r="K25" s="5">
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>1807.547067669173</v>
+      </c>
+      <c r="L25" s="5">
         <v>2030.7</v>
       </c>
-      <c r="L25" s="6">
-        <f t="shared" si="1"/>
+      <c r="M25" s="6">
+        <f t="shared" si="2"/>
         <v>2.367693504702812</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1059,32 +1155,36 @@
         <v>5.5</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173.25</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2839.065075</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4618824285714287</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>4150.3668000000007</v>
       </c>
-      <c r="K26" s="5">
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>1560.2882706766918</v>
+      </c>
+      <c r="L26" s="5">
         <v>1733.9</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" si="1"/>
+      <c r="M26" s="6">
+        <f t="shared" si="2"/>
         <v>2.3936598419747392</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -1100,32 +1200,36 @@
         <v>3.25</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>182</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2982.4522000000002</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3421458076923081</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>6985.3167999999996</v>
       </c>
-      <c r="K27" s="5">
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>2626.0589473684208</v>
+      </c>
+      <c r="L27" s="5">
         <v>2990.1</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="1"/>
+      <c r="M27" s="6">
+        <f t="shared" si="2"/>
         <v>2.3361482224674761</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1141,32 +1245,36 @@
         <v>5.25</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220.5</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3613.3555500000002</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.15915812244898</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
         <v>7801.7823999999991</v>
       </c>
-      <c r="K28" s="5">
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>2933.0009022556387</v>
+      </c>
+      <c r="L28" s="5">
         <v>2573.9</v>
       </c>
-      <c r="L28" s="6">
-        <f t="shared" si="1"/>
+      <c r="M28" s="6">
+        <f t="shared" si="2"/>
         <v>3.0311132522631024</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -1182,32 +1290,36 @@
         <v>5</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5653.5495000000001</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83842031086956514</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>4740.036399999999</v>
       </c>
-      <c r="K29" s="5">
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>1781.9685714285711</v>
+      </c>
+      <c r="L29" s="5">
         <v>1980.2</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" si="1"/>
+      <c r="M29" s="6">
+        <f t="shared" si="2"/>
         <v>2.3937159882840113</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1223,32 +1335,36 @@
         <v>4</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2753.0328</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0956629062500003</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>3016.3868000000002</v>
       </c>
-      <c r="K30" s="5">
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>1133.98</v>
+      </c>
+      <c r="L30" s="5">
         <v>1270.7</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="1"/>
+      <c r="M30" s="6">
+        <f t="shared" si="2"/>
         <v>2.3737993232076811</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -1264,32 +1380,36 @@
         <v>3</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3244.6458000000002</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7544586250000003</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>5692.5796</v>
       </c>
-      <c r="K31" s="5">
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>2140.0675187969923</v>
+      </c>
+      <c r="L31" s="5">
         <v>2083.4</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="1"/>
+      <c r="M31" s="6">
+        <f t="shared" si="2"/>
         <v>2.7323507727752712</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -1305,32 +1425,36 @@
         <v>4.5</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173.25</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2839.065075</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2781485714285714</v>
       </c>
       <c r="I32" s="3">
         <f>B32*0.453592*1000</f>
         <v>3628.7359999999999</v>
       </c>
-      <c r="K32" s="5">
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>1364.1864661654133</v>
+      </c>
+      <c r="L32" s="5">
         <v>1229.3</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" si="1"/>
+      <c r="M32" s="6">
+        <f t="shared" si="2"/>
         <v>2.9518717969576183</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -1346,32 +1470,36 @@
         <v>3.5</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>267.75</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4387.646025</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7884681848739499</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>7847.1416000000008</v>
       </c>
-      <c r="K33" s="5">
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>2950.0532330827068</v>
+      </c>
+      <c r="L33" s="5">
         <v>2809.3</v>
       </c>
-      <c r="L33" s="6">
-        <f t="shared" si="1"/>
+      <c r="M33" s="6">
+        <f t="shared" si="2"/>
         <v>2.7932729149610225</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1387,32 +1515,36 @@
         <v>4.5</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2654.7102</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3839952499999999</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="0"/>
         <v>3674.0952000000002</v>
       </c>
-      <c r="K34" s="5">
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>1381.2387969924812</v>
+      </c>
+      <c r="L34" s="5">
         <v>1340.6</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="1"/>
+      <c r="M34" s="6">
+        <f t="shared" si="2"/>
         <v>2.7406349395792931</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -1428,32 +1560,36 @@
         <v>3.5</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>232.75</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3814.0975250000001</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.195201053705693</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>4558.5995999999996</v>
       </c>
-      <c r="K35" s="5">
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>1713.7592481203005</v>
+      </c>
+      <c r="L35" s="5">
         <v>1780.9</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="1"/>
+      <c r="M35" s="6">
+        <f t="shared" si="2"/>
         <v>2.5597167724184398</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1469,32 +1605,36 @@
         <v>4</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1638.71</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1036727800000001</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>3447.2991999999999</v>
       </c>
-      <c r="K36" s="5">
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>1295.9771428571428</v>
+      </c>
+      <c r="L36" s="5">
         <v>1223.8</v>
       </c>
-      <c r="L36" s="6">
-        <f t="shared" si="1"/>
+      <c r="M36" s="6">
+        <f t="shared" si="2"/>
         <v>2.8168811897368853</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -1510,32 +1650,36 @@
         <v>3</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.875</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1161.4357124999999</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4953813015873019</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
         <v>4059.6483999999996</v>
       </c>
-      <c r="K37" s="5">
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>1526.1836090225561</v>
+      </c>
+      <c r="L37" s="5">
         <v>1480.4</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="1"/>
+      <c r="M37" s="6">
+        <f t="shared" si="2"/>
         <v>2.7422645231018641</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -1551,32 +1695,36 @@
         <v>3</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1106.12925</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8295014000000003</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="0"/>
         <v>3129.7847999999999</v>
       </c>
-      <c r="K38" s="5">
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>1176.6108270676691</v>
+      </c>
+      <c r="L38" s="5">
         <v>1138.5</v>
       </c>
-      <c r="L38" s="6">
-        <f t="shared" si="1"/>
+      <c r="M38" s="6">
+        <f t="shared" si="2"/>
         <v>2.7490424242424241</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -1592,32 +1740,36 @@
         <v>4.5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2654.7102</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1357951388888887</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>5669.9000000000005</v>
       </c>
-      <c r="K39" s="5">
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>2131.541353383459</v>
+      </c>
+      <c r="L39" s="5">
         <v>2178.1</v>
       </c>
-      <c r="L39" s="6">
-        <f t="shared" si="1"/>
+      <c r="M39" s="6">
+        <f t="shared" si="2"/>
         <v>2.6031403516826597</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -1633,32 +1785,36 @@
         <v>3.5</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341.25</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5592.0978750000004</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1454461164835164</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>11997.508399999999</v>
       </c>
-      <c r="K40" s="5">
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>4510.3415037593977</v>
+      </c>
+      <c r="L40" s="5">
         <v>4790</v>
       </c>
-      <c r="L40" s="6">
-        <f t="shared" si="1"/>
+      <c r="M40" s="6">
+        <f t="shared" si="2"/>
         <v>2.5046990396659705</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -1674,33 +1830,37 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5309.4204</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" ref="H41:H46" si="6">B41/F41*27.679905</f>
+        <f t="shared" ref="H41:H46" si="7">B41/F41*27.679905</f>
         <v>2.0290053819444447</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="0"/>
         <v>10772.81</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>4049.9285714285711</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>4821.8</v>
       </c>
-      <c r="L41" s="6">
-        <f t="shared" si="1"/>
+      <c r="M41" s="6">
+        <f t="shared" si="2"/>
         <v>2.2341884773321166</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1717,30 +1877,34 @@
         <v>15.5</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5006.5</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82042.016149999996</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1009415559772298</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="0"/>
         <v>172364.96</v>
       </c>
-      <c r="K42" s="5">
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>64798.857142857138</v>
+      </c>
+      <c r="L42" s="5">
         <v>64216</v>
       </c>
-      <c r="L42" s="6">
-        <f t="shared" si="1"/>
+      <c r="M42" s="6">
+        <f t="shared" si="2"/>
         <v>2.6841435156347329</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1757,30 +1921,34 @@
         <v>14</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4200</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68825.820000000007</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1386021839285716</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="0"/>
         <v>147190.60400000002</v>
       </c>
-      <c r="K43" s="5">
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>55334.813533834589</v>
+      </c>
+      <c r="L43" s="5">
         <v>49112</v>
       </c>
-      <c r="L43" s="6">
-        <f t="shared" si="1"/>
+      <c r="M43" s="6">
+        <f t="shared" si="2"/>
         <v>2.9970395015474836</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1797,30 +1965,34 @@
         <v>13.5</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5346</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87605.436600000001</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.563660925925926</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="0"/>
         <v>136984.78399999999</v>
       </c>
-      <c r="K44" s="5">
+      <c r="J44" s="3">
+        <f t="shared" si="1"/>
+        <v>51498.039097744353</v>
+      </c>
+      <c r="L44" s="5">
         <v>56002</v>
       </c>
-      <c r="L44" s="6">
-        <f t="shared" si="1"/>
+      <c r="M44" s="6">
+        <f t="shared" si="2"/>
         <v>2.4460694975179456</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1837,30 +2009,34 @@
         <v>23</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10764</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176390.7444</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4194823076923078</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="0"/>
         <v>250382.78399999999</v>
       </c>
-      <c r="K45" s="8">
+      <c r="J45" s="3">
+        <f t="shared" si="1"/>
+        <v>94128.866165413521</v>
+      </c>
+      <c r="L45" s="8">
         <v>103000</v>
       </c>
-      <c r="L45" s="6">
-        <f t="shared" si="1"/>
+      <c r="M45" s="6">
+        <f t="shared" si="2"/>
         <v>2.4309008155339806</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1877,30 +2053,34 @@
         <v>15</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78658.080000000002</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5973611843750002</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
         <v>125644.984</v>
       </c>
-      <c r="K46" s="5">
+      <c r="J46" s="3">
+        <f t="shared" si="1"/>
+        <v>47234.956390977437</v>
+      </c>
+      <c r="L46" s="5">
         <v>53547</v>
       </c>
-      <c r="L46" s="6">
-        <f t="shared" si="1"/>
+      <c r="M46" s="6">
+        <f t="shared" si="2"/>
         <v>2.346443012680449</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -1908,13 +2088,14 @@
         <f>AVERAGE(H22:H46)</f>
         <v>1.8033255433971402</v>
       </c>
-      <c r="K47"/>
-      <c r="L47" s="1">
-        <f>AVERAGE(L2:L46)</f>
+      <c r="J47" s="3"/>
+      <c r="L47"/>
+      <c r="M47" s="1">
+        <f>AVERAGE(M2:M46)</f>
         <v>2.6541940534518518</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1922,230 +2103,231 @@
         <f>STDEV(H22:H46)</f>
         <v>0.61823030542084501</v>
       </c>
-      <c r="K48"/>
-      <c r="L48" s="1">
-        <f>STDEV(L2:L46)</f>
+      <c r="J48" s="3"/>
+      <c r="L48"/>
+      <c r="M48" s="1">
+        <f>STDEV(M2:M46)</f>
         <v>0.25294446525404302</v>
       </c>
     </row>
-    <row r="49" spans="11:11">
-      <c r="K49"/>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50"/>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51"/>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52"/>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53"/>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54"/>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55"/>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56"/>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57"/>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58"/>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59"/>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60"/>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61"/>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62"/>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63"/>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64"/>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65"/>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66"/>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67"/>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68"/>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69"/>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70"/>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71"/>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72"/>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73"/>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74"/>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75"/>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76"/>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77"/>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78"/>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79"/>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80"/>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81"/>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82"/>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83"/>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84"/>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85"/>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86"/>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87"/>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88"/>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89"/>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90"/>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91"/>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92"/>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93"/>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94"/>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95"/>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96"/>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97"/>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98"/>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99"/>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100"/>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102"/>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103"/>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104"/>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105"/>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106"/>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107"/>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108"/>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109"/>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111"/>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112"/>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113"/>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114"/>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115"/>
-    </row>
-    <row r="116" spans="11:11">
-      <c r="K116"/>
-    </row>
-    <row r="117" spans="11:11">
-      <c r="K117"/>
-    </row>
-    <row r="118" spans="11:11">
-      <c r="K118"/>
-    </row>
-    <row r="119" spans="11:11">
-      <c r="K119"/>
-    </row>
-    <row r="120" spans="11:11">
-      <c r="K120"/>
-    </row>
-    <row r="121" spans="11:11">
-      <c r="K121"/>
+    <row r="49" spans="12:12">
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="12:12">
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="12:12">
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="12:12">
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="12:12">
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="12:12">
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="12:12">
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="12:12">
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="12:12">
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="12:12">
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="12:12">
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="12:12">
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="12:12">
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="12:12">
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="12:12">
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="12:12">
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="12:12">
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="12:12">
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="12:12">
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="12:12">
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="12:12">
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="12:12">
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="12:12">
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="12:12">
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="12:12">
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="12:12">
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="12:12">
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="12:12">
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="12:12">
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="12:12">
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="12:12">
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="12:12">
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="12:12">
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="12:12">
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="12:12">
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="12:12">
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="12:12">
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="12:12">
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="12:12">
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="12:12">
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="12:12">
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="12:12">
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="12:12">
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="12:12">
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="12:12">
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="12:12">
+      <c r="L106"/>
+    </row>
+    <row r="107" spans="12:12">
+      <c r="L107"/>
+    </row>
+    <row r="108" spans="12:12">
+      <c r="L108"/>
+    </row>
+    <row r="109" spans="12:12">
+      <c r="L109"/>
+    </row>
+    <row r="110" spans="12:12">
+      <c r="L110"/>
+    </row>
+    <row r="111" spans="12:12">
+      <c r="L111"/>
+    </row>
+    <row r="112" spans="12:12">
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="12:12">
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="12:12">
+      <c r="L114"/>
+    </row>
+    <row r="115" spans="12:12">
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="12:12">
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="12:12">
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="12:12">
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="12:12">
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="12:12">
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="12:12">
+      <c r="L121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DEM/samples/Jul_12_2018/Quarry_Result.xlsx
+++ b/DEM/samples/Jul_12_2018/Quarry_Result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/DEM/samples/Jul_12_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B054FE0-92DE-4E4D-98D8-B06FC35BB48F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E2157-A6D4-C742-BD29-1C7A5C1C13E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-380" yWindow="4160" windowWidth="28800" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -426,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -511,7 +512,7 @@
         <v>3855.5320000000002</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J48" si="1">I3/2.66</f>
+        <f t="shared" ref="J3:J46" si="1">I3/2.66</f>
         <v>1449.448120300752</v>
       </c>
       <c r="L3">
@@ -2333,4 +2334,859 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA59320-DF87-D245-8ED4-7EFE8232A3CE}">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>4036.9688000000006</v>
+      </c>
+      <c r="B1">
+        <f ca="1">OFFSET(A$1,ROUNDUP(ROW(A1)/3,0)-1,0)</f>
+        <v>4036.9688000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>3855.5320000000002</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" ca="1" si="0">OFFSET(A$1,ROUNDUP(ROW(A2)/3,0)-1,0)</f>
+        <v>4036.9688000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>9207.9176000000007</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4036.9688000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3061.7459999999996</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5511.1427999999996</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5624.5407999999998</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3855.5320000000002</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9207.9176000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3039.0663999999997</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9207.9176000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>3742.134</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9207.9176000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2358.6784000000002</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3061.7459999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>3696.7748000000001</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3061.7459999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3810.1728000000003</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3061.7459999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3628.7359999999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5511.1427999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4467.8811999999998</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5511.1427999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>3855.5320000000002</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5511.1427999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>4127.6871999999994</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5624.5407999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>6191.5307999999995</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5624.5407999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>3356.5808000000002</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5624.5407999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>4241.0851999999995</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>3878.2116000000001</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4354.4831999999997</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4173.0463999999993</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>3039.0663999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>7098.7147999999997</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3039.0663999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>4808.0752000000002</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3039.0663999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>4150.3668000000007</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3742.134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>6985.3167999999996</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3742.134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>7801.7823999999991</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3742.134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>4740.036399999999</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2358.6784000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>3016.3868000000002</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>2358.6784000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>5692.5796</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>2358.6784000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3628.7359999999999</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3696.7748000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>7847.1416000000008</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3696.7748000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>3674.0952000000002</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3696.7748000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>4558.5995999999996</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>3810.1728000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>3447.2991999999999</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3810.1728000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>4059.6483999999996</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3810.1728000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>3129.7847999999999</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3628.7359999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5669.9000000000005</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3628.7359999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>11997.508399999999</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>3628.7359999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>10772.81</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>4467.8811999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4467.8811999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>4467.8811999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>3855.5320000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>4127.6871999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>4127.6871999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>4127.6871999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>6191.5307999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>6191.5307999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>6191.5307999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>3356.5808000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>3356.5808000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>3356.5808000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>4241.0851999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>4241.0851999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>4241.0851999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>3878.2116000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>3878.2116000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>3878.2116000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>4354.4831999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>4354.4831999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>4354.4831999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>4173.0463999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>4173.0463999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66">
+        <f t="shared" ref="B66:B120" ca="1" si="1">OFFSET(A$1,ROUNDUP(ROW(A66)/3,0)-1,0)</f>
+        <v>4173.0463999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67">
+        <f t="shared" ca="1" si="1"/>
+        <v>7098.7147999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>7098.7147999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>7098.7147999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>4808.0752000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>4808.0752000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>4808.0752000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73">
+        <f t="shared" ca="1" si="1"/>
+        <v>4150.3668000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74">
+        <f t="shared" ca="1" si="1"/>
+        <v>4150.3668000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75">
+        <f t="shared" ca="1" si="1"/>
+        <v>4150.3668000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76">
+        <f t="shared" ca="1" si="1"/>
+        <v>6985.3167999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77">
+        <f t="shared" ca="1" si="1"/>
+        <v>6985.3167999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78">
+        <f t="shared" ca="1" si="1"/>
+        <v>6985.3167999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79">
+        <f t="shared" ca="1" si="1"/>
+        <v>7801.7823999999991</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>7801.7823999999991</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>7801.7823999999991</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82">
+        <f t="shared" ca="1" si="1"/>
+        <v>4740.036399999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <f t="shared" ca="1" si="1"/>
+        <v>4740.036399999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <f t="shared" ca="1" si="1"/>
+        <v>4740.036399999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <f t="shared" ca="1" si="1"/>
+        <v>3016.3868000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <f t="shared" ca="1" si="1"/>
+        <v>3016.3868000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <f t="shared" ca="1" si="1"/>
+        <v>3016.3868000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <f t="shared" ca="1" si="1"/>
+        <v>5692.5796</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89">
+        <f t="shared" ca="1" si="1"/>
+        <v>5692.5796</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90">
+        <f t="shared" ca="1" si="1"/>
+        <v>5692.5796</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91">
+        <f t="shared" ca="1" si="1"/>
+        <v>3628.7359999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92">
+        <f t="shared" ca="1" si="1"/>
+        <v>3628.7359999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93">
+        <f t="shared" ca="1" si="1"/>
+        <v>3628.7359999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94">
+        <f t="shared" ca="1" si="1"/>
+        <v>7847.1416000000008</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <f t="shared" ca="1" si="1"/>
+        <v>7847.1416000000008</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96">
+        <f t="shared" ca="1" si="1"/>
+        <v>7847.1416000000008</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97">
+        <f t="shared" ca="1" si="1"/>
+        <v>3674.0952000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98">
+        <f t="shared" ca="1" si="1"/>
+        <v>3674.0952000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99">
+        <f t="shared" ca="1" si="1"/>
+        <v>3674.0952000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100">
+        <f t="shared" ca="1" si="1"/>
+        <v>4558.5995999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101">
+        <f t="shared" ca="1" si="1"/>
+        <v>4558.5995999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102">
+        <f t="shared" ca="1" si="1"/>
+        <v>4558.5995999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <f t="shared" ca="1" si="1"/>
+        <v>3447.2991999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104">
+        <f t="shared" ca="1" si="1"/>
+        <v>3447.2991999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105">
+        <f t="shared" ca="1" si="1"/>
+        <v>3447.2991999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106">
+        <f t="shared" ca="1" si="1"/>
+        <v>4059.6483999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107">
+        <f t="shared" ca="1" si="1"/>
+        <v>4059.6483999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108">
+        <f t="shared" ca="1" si="1"/>
+        <v>4059.6483999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109">
+        <f t="shared" ca="1" si="1"/>
+        <v>3129.7847999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110">
+        <f t="shared" ca="1" si="1"/>
+        <v>3129.7847999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111">
+        <f t="shared" ca="1" si="1"/>
+        <v>3129.7847999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112">
+        <f t="shared" ca="1" si="1"/>
+        <v>5669.9000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113">
+        <f t="shared" ca="1" si="1"/>
+        <v>5669.9000000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114">
+        <f t="shared" ca="1" si="1"/>
+        <v>5669.9000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115">
+        <f t="shared" ca="1" si="1"/>
+        <v>11997.508399999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116">
+        <f t="shared" ca="1" si="1"/>
+        <v>11997.508399999999</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117">
+        <f t="shared" ca="1" si="1"/>
+        <v>11997.508399999999</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118">
+        <f t="shared" ca="1" si="1"/>
+        <v>10772.81</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119">
+        <f t="shared" ca="1" si="1"/>
+        <v>10772.81</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120">
+        <f t="shared" ca="1" si="1"/>
+        <v>10772.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>